--- a/outputs/grs_atualizado_form4.xlsx
+++ b/outputs/grs_atualizado_form4.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="11.24" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="12.24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="01.25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="02.25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="03.25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="04.25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="05.25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="06.25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="07.25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="08.25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="09.25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="10.25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="11.25" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="12.25" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01.25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03.25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06.25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07.25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08.25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="09.25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.25" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.25" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/grs_atualizado_form4.xlsx
+++ b/outputs/grs_atualizado_form4.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.24" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01.25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02.25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03.25" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04.25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05.25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06.25" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07.25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08.25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="09.25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.25" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11.25" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.25" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="11.24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="12.24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="01.25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="02.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="03.25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="04.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="05.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="06.25" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="07.25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="08.25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="09.25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="10.25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="11.25" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="12.25" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1743,12 +1743,16 @@
           <t>24/02/2025</t>
         </is>
       </c>
-      <c r="G24" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="n"/>
+      <c r="G24" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>Não lançou nas despesas o INSS separado</t>
+        </is>
+      </c>
       <c r="I24" s="3" t="n"/>
       <c r="J24" s="3" t="inlineStr">
         <is>
@@ -1786,12 +1790,16 @@
           <t>24/02/2025</t>
         </is>
       </c>
-      <c r="G25" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="n"/>
+      <c r="G25" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>Não lançou nas despesas o INSS separado; O lançamento no receita de venda de reciclaveis e total de despesa da pg 2 não bate com o total da pagina 8</t>
+        </is>
+      </c>
       <c r="I25" s="3" t="n"/>
       <c r="J25" s="3" t="inlineStr">
         <is>
@@ -1829,12 +1837,16 @@
           <t>24/02/2025</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="n"/>
+      <c r="G26" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>Não lançou nas despesas o INSS separado; O lançamento no receita de venda de reciclaveis e total de despesa da pg 2 não bate com o total da pagina 8</t>
+        </is>
+      </c>
       <c r="I26" s="3" t="n"/>
       <c r="J26" s="3" t="inlineStr">
         <is>
@@ -1872,12 +1884,16 @@
           <t>24/02/2025</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H27" s="3" t="n"/>
+      <c r="G27" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>O lançamento no receita de venda de reciclaveis pg 2 não bate com o total da pagina 8; não lançou despesa do INSS</t>
+        </is>
+      </c>
       <c r="I27" s="3" t="n"/>
       <c r="J27" s="3" t="inlineStr">
         <is>
@@ -1915,12 +1931,16 @@
           <t>24/02/2025</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H28" s="3" t="n"/>
+      <c r="G28" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>O lançamento no receita de venda de reciclaveis e total de despesa da pg 2 não bate com o total da pagina 8</t>
+        </is>
+      </c>
       <c r="I28" s="3" t="n"/>
       <c r="J28" s="3" t="inlineStr">
         <is>
@@ -1958,12 +1978,16 @@
           <t>24/02/2025</t>
         </is>
       </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H29" s="3" t="n"/>
+      <c r="G29" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>O lançamento no receita de venda de reciclaveis e total de despesa da pg 2 não bate com o total da pagina 8</t>
+        </is>
+      </c>
       <c r="I29" s="3" t="n"/>
       <c r="J29" s="3" t="inlineStr">
         <is>
@@ -2001,12 +2025,16 @@
           <t>24/02/2025</t>
         </is>
       </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H30" s="3" t="n"/>
+      <c r="G30" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>Não lançou nas despesas o INSS separado</t>
+        </is>
+      </c>
       <c r="I30" s="3" t="n"/>
       <c r="J30" s="3" t="inlineStr">
         <is>
@@ -2576,9 +2604,9 @@
           <t>24/02/2025</t>
         </is>
       </c>
-      <c r="G43" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G43" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H43" s="3" t="n"/>
@@ -2619,12 +2647,16 @@
           <t>24/02/2025</t>
         </is>
       </c>
-      <c r="G44" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H44" s="3" t="n"/>
+      <c r="G44" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
+        <is>
+          <t>Falta preencher INSS</t>
+        </is>
+      </c>
       <c r="I44" s="3" t="n"/>
       <c r="J44" s="3" t="inlineStr">
         <is>
@@ -2784,7 +2816,7 @@
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>29/04/2025, 25/02/2025</t>
+          <t>25/02/2025, 29/04/2025</t>
         </is>
       </c>
       <c r="G48" s="5" t="inlineStr">
@@ -3226,12 +3258,16 @@
           <t>24/02/2025</t>
         </is>
       </c>
-      <c r="G58" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H58" s="3" t="n"/>
+      <c r="G58" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="inlineStr">
+        <is>
+          <t>Não inseriu INSS nas despesas</t>
+        </is>
+      </c>
       <c r="I58" s="3" t="n"/>
       <c r="J58" s="3" t="inlineStr">
         <is>
@@ -3266,7 +3302,7 @@
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>10/03/2025, 26/02/2025</t>
+          <t>26/02/2025, 10/03/2025</t>
         </is>
       </c>
       <c r="G59" s="7" t="inlineStr">
@@ -3316,12 +3352,16 @@
           <t>24/02/2025</t>
         </is>
       </c>
-      <c r="G60" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H60" s="3" t="n"/>
+      <c r="G60" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="inlineStr">
+        <is>
+          <t>O lançamento no receita de venda de reciclaveis da pg 2 não bate com o total da pagina 8</t>
+        </is>
+      </c>
       <c r="I60" s="3" t="n"/>
       <c r="J60" s="3" t="inlineStr">
         <is>
@@ -3356,7 +3396,7 @@
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>25/02/2025, 02/04/2025</t>
+          <t>02/04/2025, 25/02/2025</t>
         </is>
       </c>
       <c r="G61" s="5" t="inlineStr">
@@ -3402,12 +3442,16 @@
           <t>24/02/2025, 24/02/2025</t>
         </is>
       </c>
-      <c r="G62" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H62" s="3" t="n"/>
+      <c r="G62" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H62" s="3" t="inlineStr">
+        <is>
+          <t>O lançamento da desepesa da UVR na aba 2 nao coincide com o da aba 8</t>
+        </is>
+      </c>
       <c r="I62" s="3" t="n"/>
       <c r="J62" s="3" t="inlineStr">
         <is>
@@ -3619,7 +3663,7 @@
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>06/03/2025, 26/02/2025, 15/04/2025</t>
+          <t>06/03/2025, 15/04/2025, 26/02/2025</t>
         </is>
       </c>
       <c r="G67" s="5" t="inlineStr">
@@ -16208,7 +16252,7 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -16282,7 +16326,7 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -16299,7 +16343,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -16319,7 +16363,7 @@
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -16336,7 +16380,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -16356,7 +16400,7 @@
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -16373,7 +16417,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -16410,7 +16454,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -16430,7 +16474,7 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -16447,7 +16491,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -16467,7 +16511,7 @@
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -16484,7 +16528,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -16499,12 +16543,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -16521,7 +16565,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -16541,7 +16585,7 @@
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -16578,7 +16622,7 @@
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -16595,7 +16639,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -16610,12 +16654,12 @@
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>08/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -16632,7 +16676,7 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -16647,12 +16691,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>08/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -16706,7 +16750,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -16721,7 +16765,7 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
@@ -16743,7 +16787,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -16758,12 +16802,12 @@
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>07/01/2025</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -16780,7 +16824,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -16795,7 +16839,7 @@
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
@@ -16817,7 +16861,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -16832,12 +16876,12 @@
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>08/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -16854,7 +16898,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -16869,7 +16913,7 @@
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>07/01/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
@@ -16891,7 +16935,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -16906,12 +16950,12 @@
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>08/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -16928,7 +16972,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -16965,7 +17009,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -16985,7 +17029,7 @@
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17002,7 +17046,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -17017,7 +17061,7 @@
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G25" s="3" t="inlineStr">
@@ -17039,7 +17083,7 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -17054,12 +17098,12 @@
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17076,7 +17120,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -17091,12 +17135,12 @@
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17113,7 +17157,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -17128,7 +17172,7 @@
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
@@ -17150,7 +17194,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -17170,7 +17214,7 @@
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17187,7 +17231,7 @@
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -17207,7 +17251,7 @@
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17224,7 +17268,7 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -17244,7 +17288,7 @@
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17261,7 +17305,7 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -17281,7 +17325,7 @@
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17298,7 +17342,7 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -17318,7 +17362,7 @@
       </c>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17335,7 +17379,7 @@
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -17372,7 +17416,7 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -17387,12 +17431,12 @@
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17453,7 @@
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -17424,12 +17468,12 @@
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17446,7 +17490,7 @@
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -17466,7 +17510,7 @@
       </c>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17483,7 +17527,7 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -17503,7 +17547,7 @@
       </c>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17520,7 +17564,7 @@
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -17535,12 +17579,12 @@
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G39" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17557,7 +17601,7 @@
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -17572,12 +17616,12 @@
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17594,7 +17638,7 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -17609,12 +17653,12 @@
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17631,7 +17675,7 @@
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -17646,12 +17690,12 @@
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17668,7 +17712,7 @@
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -17683,12 +17727,12 @@
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G43" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17705,7 +17749,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -17720,12 +17764,12 @@
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G44" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17762,7 +17806,7 @@
       </c>
       <c r="G45" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17799,7 +17843,7 @@
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17836,7 +17880,7 @@
       </c>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17873,7 +17917,7 @@
       </c>
       <c r="G48" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17910,7 +17954,7 @@
       </c>
       <c r="G49" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18112,7 +18156,7 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -18127,12 +18171,12 @@
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>06/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G55" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18149,7 +18193,7 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -18164,12 +18208,12 @@
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>06/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G56" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -18223,7 +18267,7 @@
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -18238,12 +18282,12 @@
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>06/01/2025</t>
         </is>
       </c>
       <c r="G58" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18260,7 +18304,7 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -18275,12 +18319,12 @@
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>06/01/2025</t>
         </is>
       </c>
       <c r="G59" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -18317,7 +18361,7 @@
       </c>
       <c r="G60" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18354,7 +18398,7 @@
       </c>
       <c r="G61" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -18428,7 +18472,7 @@
       </c>
       <c r="G63" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -18460,12 +18504,12 @@
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G64" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18502,7 +18546,7 @@
       </c>
       <c r="G65" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -18534,12 +18578,12 @@
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G66" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -18613,7 +18657,7 @@
       </c>
       <c r="G68" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -18650,7 +18694,7 @@
       </c>
       <c r="G69" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18672,7 +18716,7 @@
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>Admin Laboratório</t>
+          <t>Roberto Pedron</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
@@ -18682,12 +18726,12 @@
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>04/04/2025</t>
         </is>
       </c>
       <c r="G70" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>03.05</t>
         </is>
       </c>
     </row>
@@ -18709,7 +18753,7 @@
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>Roberto Pedron</t>
+          <t>Admin Laboratório</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
@@ -18719,12 +18763,12 @@
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>04/04/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G71" s="3" t="inlineStr">
         <is>
-          <t>03.05</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -18761,7 +18805,7 @@
       </c>
       <c r="G72" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -18798,7 +18842,7 @@
       </c>
       <c r="G73" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18830,12 +18874,12 @@
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G74" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18904,12 +18948,12 @@
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="G76" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -19205,7 +19249,7 @@
       </c>
       <c r="G84" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -19242,7 +19286,7 @@
       </c>
       <c r="G85" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -19279,7 +19323,7 @@
       </c>
       <c r="G86" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -19316,7 +19360,7 @@
       </c>
       <c r="G87" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -19390,7 +19434,7 @@
       </c>
       <c r="G89" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -19464,7 +19508,7 @@
       </c>
       <c r="G91" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -19723,7 +19767,7 @@
       </c>
       <c r="G98" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -19797,7 +19841,7 @@
       </c>
       <c r="G100" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -19834,7 +19878,7 @@
       </c>
       <c r="G101" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -19871,7 +19915,7 @@
       </c>
       <c r="G102" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -20093,7 +20137,7 @@
       </c>
       <c r="G108" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -20130,7 +20174,7 @@
       </c>
       <c r="G109" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -20167,7 +20211,7 @@
       </c>
       <c r="G110" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -20204,7 +20248,7 @@
       </c>
       <c r="G111" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -20278,7 +20322,7 @@
       </c>
       <c r="G113" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -21349,9 +21393,9 @@
           <t>13/03/2025</t>
         </is>
       </c>
-      <c r="G24" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G24" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H24" s="3" t="n"/>
@@ -21392,12 +21436,16 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G25" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="n"/>
+      <c r="G25" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>corrigir rejeito</t>
+        </is>
+      </c>
       <c r="I25" s="3" t="n"/>
       <c r="J25" s="3" t="inlineStr">
         <is>
@@ -21435,9 +21483,9 @@
           <t>09/06/2025</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G26" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H26" s="3" t="n"/>
@@ -21478,9 +21526,9 @@
           <t>28/02/2025</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G27" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H27" s="3" t="n"/>
@@ -21560,12 +21608,16 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H29" s="3" t="n"/>
+      <c r="G29" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>Aba 2 de venda de reciclaveis nao confere com aba 8</t>
+        </is>
+      </c>
       <c r="I29" s="3" t="n"/>
       <c r="J29" s="3" t="inlineStr">
         <is>
@@ -21603,9 +21655,9 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G30" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H30" s="3" t="n"/>
@@ -22811,12 +22863,16 @@
           <t>11/03/2025</t>
         </is>
       </c>
-      <c r="G58" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H58" s="3" t="n"/>
+      <c r="G58" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="inlineStr">
+        <is>
+          <t>Aba 2 de venda de reciclaveis nao confere com aba 8</t>
+        </is>
+      </c>
       <c r="I58" s="3" t="n"/>
       <c r="J58" s="3" t="inlineStr">
         <is>
@@ -22901,12 +22957,16 @@
           <t>17/03/2025</t>
         </is>
       </c>
-      <c r="G60" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H60" s="3" t="n"/>
+      <c r="G60" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="inlineStr">
+        <is>
+          <t>Aba 2 de venda de reciclaveis nao confere com aba 8</t>
+        </is>
+      </c>
       <c r="I60" s="3" t="n"/>
       <c r="J60" s="3" t="inlineStr">
         <is>
@@ -22987,12 +23047,16 @@
           <t>05/03/2025</t>
         </is>
       </c>
-      <c r="G62" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H62" s="3" t="n"/>
+      <c r="G62" s="7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H62" s="3" t="inlineStr">
+        <is>
+          <t>Aba 2 de venda de reciclaveis nao confere com aba 8</t>
+        </is>
+      </c>
       <c r="I62" s="3" t="n"/>
       <c r="J62" s="3" t="inlineStr">
         <is>
@@ -27815,7 +27879,7 @@
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>13/03/2025, 14/04/2025</t>
+          <t>14/04/2025, 13/03/2025</t>
         </is>
       </c>
       <c r="G33" s="7" t="inlineStr">
@@ -27870,7 +27934,7 @@
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>02/04/2025, 01/04/2025</t>
+          <t>01/04/2025, 02/04/2025</t>
         </is>
       </c>
       <c r="G34" s="7" t="inlineStr">
@@ -30891,7 +30955,7 @@
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>08/04/2025, 14/04/2025</t>
+          <t>14/04/2025, 08/04/2025</t>
         </is>
       </c>
       <c r="G33" s="7" t="inlineStr">
@@ -32201,7 +32265,7 @@
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>08/04/2025, 21/03/2025</t>
+          <t>21/03/2025, 08/04/2025</t>
         </is>
       </c>
       <c r="G63" s="5" t="inlineStr">
@@ -36430,12 +36494,16 @@
           <t>Keilla Avezedo</t>
         </is>
       </c>
-      <c r="E21" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="n"/>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
       <c r="G21" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -36727,12 +36795,16 @@
           <t>Jose Francisco Mariano de Faria Filho</t>
         </is>
       </c>
-      <c r="E28" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F28" s="3" t="n"/>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -37430,12 +37502,16 @@
           <t>Roberto Pedron</t>
         </is>
       </c>
-      <c r="E45" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F45" s="3" t="n"/>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>16/06/2025</t>
+        </is>
+      </c>
       <c r="G45" s="5" t="inlineStr">
         <is>
           <t>Não</t>

--- a/outputs/grs_atualizado_form4.xlsx
+++ b/outputs/grs_atualizado_form4.xlsx
@@ -23,7 +23,22 @@
     <sheet name="12.25" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="irregulares" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'11.24'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'12.24'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'01.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'02.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'03.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'04.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'05.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'06.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'07.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'08.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'09.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'10.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'11.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'12.25'!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -3724,6 +3739,7 @@
       <c r="K68" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -6194,6 +6210,7 @@
       <c r="K68" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -8664,6 +8681,7 @@
       <c r="K68" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -11134,6 +11152,7 @@
       <c r="K68" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -13604,6 +13623,7 @@
       <c r="K68" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -16074,6 +16094,7 @@
       <c r="K68" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -23326,6 +23347,7 @@
       <c r="K68" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -26362,6 +26384,7 @@
       <c r="K68" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -29429,6 +29452,7 @@
       <c r="K68" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -32497,6 +32521,7 @@
       <c r="K68" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -35557,6 +35582,7 @@
       <c r="K68" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -38480,6 +38506,7 @@
       <c r="K68" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -40958,6 +40985,7 @@
       <c r="K68" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>
@@ -43428,6 +43456,7 @@
       <c r="K68" s="3" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="G2:G68">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>"Sim"</formula>

--- a/outputs/grs_atualizado_form4.xlsx
+++ b/outputs/grs_atualizado_form4.xlsx
@@ -221,7 +221,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -235,6 +235,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="00FF6666"/>
           <bgColor rgb="00FF6666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFA500"/>
+          <bgColor rgb="00FFA500"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1140,7 +1148,7 @@
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>20/03/2025, 06/03/2025</t>
+          <t>06/03/2025, 20/03/2025</t>
         </is>
       </c>
       <c r="G10" s="7" t="inlineStr">
@@ -1184,14 +1192,14 @@
           <t>Lucas Fenerick Biondi</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>26/02/2025</t>
+          <t>17/06/2025, 26/02/2025</t>
         </is>
       </c>
       <c r="G11" s="5" t="inlineStr">
@@ -2831,7 +2839,7 @@
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>25/02/2025, 29/04/2025</t>
+          <t>29/04/2025, 25/02/2025</t>
         </is>
       </c>
       <c r="G48" s="5" t="inlineStr">
@@ -2968,8 +2976,16 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H51" s="3" t="n"/>
-      <c r="I51" s="3" t="n"/>
+      <c r="H51" s="3" t="inlineStr">
+        <is>
+          <t>digitiu errado valor da Receita total de venda de recicláveis</t>
+        </is>
+      </c>
+      <c r="I51" s="3" t="inlineStr">
+        <is>
+          <t>Remover ID4257</t>
+        </is>
+      </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3317,7 +3333,7 @@
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>26/02/2025, 10/03/2025</t>
+          <t>10/03/2025, 26/02/2025</t>
         </is>
       </c>
       <c r="G59" s="7" t="inlineStr">
@@ -3411,7 +3427,7 @@
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>02/04/2025, 25/02/2025</t>
+          <t>25/02/2025, 02/04/2025</t>
         </is>
       </c>
       <c r="G61" s="5" t="inlineStr">
@@ -3755,30 +3771,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -6226,30 +6248,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -8697,30 +8725,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -11168,30 +11202,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -13639,30 +13679,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -16110,30 +16156,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -16273,7 +16325,7 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -16310,7 +16362,7 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -16347,7 +16399,7 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -16364,7 +16416,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -16384,7 +16436,7 @@
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -16401,7 +16453,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -16438,7 +16490,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -16475,7 +16527,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -16512,7 +16564,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -16532,7 +16584,7 @@
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -16549,7 +16601,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -16569,7 +16621,7 @@
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -16606,7 +16658,7 @@
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -16643,7 +16695,7 @@
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -16660,7 +16712,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -16675,12 +16727,12 @@
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -16697,7 +16749,7 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -16717,7 +16769,7 @@
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -16734,7 +16786,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -16754,7 +16806,7 @@
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -16771,7 +16823,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -16786,12 +16838,12 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>08/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -16808,7 +16860,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -16823,7 +16875,7 @@
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>07/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
@@ -16882,7 +16934,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -16897,7 +16949,7 @@
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>07/01/2025</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
@@ -16919,7 +16971,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -16939,7 +16991,7 @@
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -16956,7 +17008,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -16976,7 +17028,7 @@
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -16993,7 +17045,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -17013,7 +17065,7 @@
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17030,7 +17082,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -17045,7 +17097,7 @@
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
@@ -17067,7 +17119,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -17082,7 +17134,7 @@
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G25" s="3" t="inlineStr">
@@ -17104,7 +17156,7 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -17119,7 +17171,7 @@
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
@@ -17141,7 +17193,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -17156,12 +17208,12 @@
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17178,7 +17230,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -17193,12 +17245,12 @@
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17235,7 +17287,7 @@
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17252,7 +17304,7 @@
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -17289,7 +17341,7 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -17309,7 +17361,7 @@
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17326,7 +17378,7 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -17346,7 +17398,7 @@
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17415,7 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -17383,7 +17435,7 @@
       </c>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17400,7 +17452,7 @@
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -17420,7 +17472,7 @@
       </c>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17437,7 +17489,7 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -17452,12 +17504,12 @@
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17474,7 +17526,7 @@
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -17511,7 +17563,7 @@
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -17526,7 +17578,7 @@
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G37" s="3" t="inlineStr">
@@ -17548,7 +17600,7 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -17585,7 +17637,7 @@
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -17600,7 +17652,7 @@
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G39" s="3" t="inlineStr">
@@ -17622,7 +17674,7 @@
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -17637,7 +17689,7 @@
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G40" s="3" t="inlineStr">
@@ -17659,7 +17711,7 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -17674,7 +17726,7 @@
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G41" s="3" t="inlineStr">
@@ -17696,7 +17748,7 @@
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -17711,7 +17763,7 @@
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G42" s="3" t="inlineStr">
@@ -17733,7 +17785,7 @@
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -17748,7 +17800,7 @@
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G43" s="3" t="inlineStr">
@@ -17770,7 +17822,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -17827,7 +17879,7 @@
       </c>
       <c r="G45" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -17864,7 +17916,7 @@
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -17901,7 +17953,7 @@
       </c>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17938,7 +17990,7 @@
       </c>
       <c r="G48" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -17975,7 +18027,7 @@
       </c>
       <c r="G49" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -18049,7 +18101,7 @@
       </c>
       <c r="G51" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -18086,7 +18138,7 @@
       </c>
       <c r="G52" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -18123,7 +18175,7 @@
       </c>
       <c r="G53" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18140,7 +18192,7 @@
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -18155,12 +18207,12 @@
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>06/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G54" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -18197,7 +18249,7 @@
       </c>
       <c r="G55" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -18214,7 +18266,7 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -18229,7 +18281,7 @@
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>06/01/2025</t>
         </is>
       </c>
       <c r="G56" s="3" t="inlineStr">
@@ -18251,7 +18303,7 @@
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -18266,12 +18318,12 @@
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>06/01/2025</t>
         </is>
       </c>
       <c r="G57" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18288,7 +18340,7 @@
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -18303,7 +18355,7 @@
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>06/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G58" s="3" t="inlineStr">
@@ -18382,7 +18434,7 @@
       </c>
       <c r="G60" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -18419,7 +18471,7 @@
       </c>
       <c r="G61" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18737,7 +18789,7 @@
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>Roberto Pedron</t>
+          <t>Admin Laboratório</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
@@ -18747,12 +18799,12 @@
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
-          <t>04/04/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="G70" s="3" t="inlineStr">
         <is>
-          <t>03.05</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -18774,7 +18826,7 @@
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>Admin Laboratório</t>
+          <t>Roberto Pedron</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
@@ -18784,12 +18836,12 @@
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>04/04/2025</t>
         </is>
       </c>
       <c r="G71" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>03.05</t>
         </is>
       </c>
     </row>
@@ -18863,7 +18915,7 @@
       </c>
       <c r="G73" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -18895,12 +18947,12 @@
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>03/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="G74" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -18937,7 +18989,7 @@
       </c>
       <c r="G75" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -18969,12 +19021,12 @@
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="G76" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -19270,7 +19322,7 @@
       </c>
       <c r="G84" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -19307,7 +19359,7 @@
       </c>
       <c r="G85" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -19455,7 +19507,7 @@
       </c>
       <c r="G89" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -19492,7 +19544,7 @@
       </c>
       <c r="G90" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -19529,7 +19581,7 @@
       </c>
       <c r="G91" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -19566,7 +19618,7 @@
       </c>
       <c r="G92" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -19603,7 +19655,7 @@
       </c>
       <c r="G93" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -19640,7 +19692,7 @@
       </c>
       <c r="G94" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -19677,7 +19729,7 @@
       </c>
       <c r="G95" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -19751,7 +19803,7 @@
       </c>
       <c r="G97" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -19788,7 +19840,7 @@
       </c>
       <c r="G98" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -19825,7 +19877,7 @@
       </c>
       <c r="G99" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -19862,7 +19914,7 @@
       </c>
       <c r="G100" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -19899,7 +19951,7 @@
       </c>
       <c r="G101" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -19936,7 +19988,7 @@
       </c>
       <c r="G102" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -20042,12 +20094,12 @@
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>06/01/2025</t>
+          <t>09/01/2025</t>
         </is>
       </c>
       <c r="G105" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -20079,12 +20131,12 @@
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
-          <t>09/01/2025</t>
+          <t>06/01/2025</t>
         </is>
       </c>
       <c r="G106" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -20158,7 +20210,7 @@
       </c>
       <c r="G108" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>08.24</t>
         </is>
       </c>
     </row>
@@ -20195,7 +20247,7 @@
       </c>
       <c r="G109" s="3" t="inlineStr">
         <is>
-          <t>08.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -20269,7 +20321,7 @@
       </c>
       <c r="G111" s="3" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>09.24</t>
         </is>
       </c>
     </row>
@@ -20306,7 +20358,7 @@
       </c>
       <c r="G112" s="3" t="inlineStr">
         <is>
-          <t>09.24</t>
+          <t>10.24</t>
         </is>
       </c>
     </row>
@@ -23363,30 +23415,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -23899,12 +23957,16 @@
           <t>Lucas Fenerick Biondi</t>
         </is>
       </c>
-      <c r="E11" s="11" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="n"/>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -26400,30 +26462,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -26941,12 +27009,16 @@
           <t>Lucas Fenerick Biondi</t>
         </is>
       </c>
-      <c r="E11" s="11" t="inlineStr">
-        <is>
-          <t>Atrasado &gt;= 2</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="n"/>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -27957,7 +28029,7 @@
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>01/04/2025, 02/04/2025</t>
+          <t>02/04/2025, 01/04/2025</t>
         </is>
       </c>
       <c r="G34" s="7" t="inlineStr">
@@ -29468,30 +29540,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -32289,7 +32367,7 @@
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>21/03/2025, 08/04/2025</t>
+          <t>08/04/2025, 21/03/2025</t>
         </is>
       </c>
       <c r="G63" s="5" t="inlineStr">
@@ -32537,30 +32615,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -35598,30 +35682,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -35734,12 +35824,16 @@
           <t>Paula Tatiana Santana Vechi</t>
         </is>
       </c>
-      <c r="E2" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="n"/>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -36204,12 +36298,16 @@
           <t>Eduarda Rohden Donasolo</t>
         </is>
       </c>
-      <c r="E13" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="n"/>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -36946,12 +37044,16 @@
           <t>Paulo Rogerio Hiroshi Fujii</t>
         </is>
       </c>
-      <c r="E31" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F31" s="3" t="n"/>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
       <c r="G31" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -37864,12 +37966,16 @@
           <t>Fernanda Jung</t>
         </is>
       </c>
-      <c r="E53" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F53" s="3" t="n"/>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
       <c r="G53" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -38200,12 +38306,16 @@
           <t>Mayara Ketllyn de Paula Rosetti</t>
         </is>
       </c>
-      <c r="E61" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F61" s="3" t="n"/>
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
       <c r="G61" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -38239,12 +38349,16 @@
           <t>Junior Andre Britzke</t>
         </is>
       </c>
-      <c r="E62" s="13" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F62" s="3" t="n"/>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
       <c r="G62" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -38522,30 +38636,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -41001,30 +41121,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
@@ -43472,30 +43598,36 @@
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>"Não"</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>"Em Análise"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E68">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
       <formula>"Enviado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="3" stopIfTrue="1">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="4" stopIfTrue="1">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
       <formula>"Atrasado &gt;= 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Outras Ocorrências"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="6" stopIfTrue="1">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="7" stopIfTrue="1">
       <formula>"Sem Técnico"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="5" stopIfTrue="1">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="6" stopIfTrue="1">
       <formula>"Duplicado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68 J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58 G59 G60 G61 G62 G63 G64 G65 G66 G67 G68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J67 J68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
     <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
